--- a/live-stats/12/USQCup/TEXAS_TXST.xlsx
+++ b/live-stats/12/USQCup/TEXAS_TXST.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\USQCup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3776A38-CE32-4A78-9AEE-D2A5EE01C69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE494C98-B7CF-458A-BB82-7CEB928F6D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>A</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>CAMERON OGILVIE</t>
-  </si>
-  <si>
-    <t>CAMBRIE CODY</t>
   </si>
   <si>
     <t>DAVIS ROE</t>
@@ -669,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,7 +738,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -749,13 +746,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,7 +981,9 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,21 +1011,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="26"/>
@@ -1047,26 +1049,26 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="25">
+      <c r="L2" s="33">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>11</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="27"/>
-      <c r="O2" s="25" t="e">
-        <f ca="1">TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$X$59,"RCA"),"*",""),IF(COUNTIF($A$7:$X$59,"OCA"),"^",""),IF(COUNTIF($R$7:$X$59,"2CA"),"!",""))</f>
-        <v>#NAME?</v>
+      <c r="O2" s="34" t="str">
+        <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
+        <v>*</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="27"/>
-      <c r="R2" s="31" t="e">
-        <f ca="1">CONCAT(LEN(O2)*30+L2*10,O2)</f>
-        <v>#NAME?</v>
+      <c r="R2" s="25" t="str">
+        <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
+        <v>140*</v>
       </c>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
@@ -1079,7 +1081,7 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -1107,10 +1109,10 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="26"/>
@@ -1118,26 +1120,26 @@
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="25">
+      <c r="L4" s="33">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>6</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="27"/>
-      <c r="O4" s="25" t="e">
-        <f ca="1">TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$59,"RCB"),"*",""),IF(COUNTIF($A$7:$R$59,"OCB"),"^",""),IF(COUNTIF($A$7:$R$59,"2CB"),"!",""))</f>
-        <v>#NAME?</v>
+      <c r="O4" s="34" t="str">
+        <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
+        <v/>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="27"/>
-      <c r="R4" s="31" t="e">
-        <f ca="1">CONCAT(LEN(O4)*30+L4*10,O4)</f>
-        <v>#NAME?</v>
+      <c r="R4" s="25" t="str">
+        <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
+        <v>60</v>
       </c>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
@@ -1150,7 +1152,7 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="28"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -29420,8 +29422,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29484,16 +29486,14 @@
       <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>83</v>
-      </c>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29501,7 +29501,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29509,7 +29509,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29517,10 +29517,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29528,7 +29528,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29536,7 +29536,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29553,10 +29553,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29564,10 +29564,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29575,7 +29575,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29588,10 +29588,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29599,10 +29599,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29610,7 +29610,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29618,10 +29618,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29629,7 +29629,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29637,7 +29637,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29645,10 +29645,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29656,7 +29656,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29664,7 +29664,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29677,7 +29677,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29685,7 +29685,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29708,7 +29708,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29716,7 +29716,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29759,7 +29759,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29767,7 +29767,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29810,7 +29810,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29953,7 +29953,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29966,7 +29966,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -30009,7 +30009,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
